--- a/replication/results/figureA1_police_report_only.xlsx
+++ b/replication/results/figureA1_police_report_only.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>year</t>
   </si>
@@ -34,70 +34,67 @@
     <t>total_dof</t>
   </si>
   <si>
-    <t>(4.18)</t>
-  </si>
-  <si>
-    <t>(3.36)</t>
-  </si>
-  <si>
-    <t>(0.96)</t>
-  </si>
-  <si>
-    <t>(0.67)</t>
-  </si>
-  <si>
-    <t>(1.49)</t>
-  </si>
-  <si>
-    <t>(1.11)</t>
-  </si>
-  <si>
-    <t>(1.62)</t>
-  </si>
-  <si>
-    <t>(1.13)</t>
-  </si>
-  <si>
-    <t>(1.01)</t>
+    <t>(3.76)</t>
+  </si>
+  <si>
+    <t>(3.45)</t>
+  </si>
+  <si>
+    <t>(0.99)</t>
+  </si>
+  <si>
+    <t>(0.73)</t>
+  </si>
+  <si>
+    <t>(1.45)</t>
+  </si>
+  <si>
+    <t>(1.16)</t>
+  </si>
+  <si>
+    <t>(1.67)</t>
+  </si>
+  <si>
+    <t>(1.14)</t>
+  </si>
+  <si>
+    <t>(1.04)</t>
   </si>
   <si>
     <t>(0.61)</t>
   </si>
   <si>
-    <t>(1.47)</t>
-  </si>
-  <si>
-    <t>(1.3)</t>
-  </si>
-  <si>
-    <t>(2.12)</t>
-  </si>
-  <si>
-    <t>(1.34)</t>
+    <t>(1.12)</t>
+  </si>
+  <si>
+    <t>(2.0)</t>
+  </si>
+  <si>
+    <t>(1.39)</t>
+  </si>
+  <si>
+    <t>(2.13)</t>
+  </si>
+  <si>
+    <t>(1.94)</t>
   </si>
   <si>
     <t>(2.22)</t>
   </si>
   <si>
-    <t>(2.09)</t>
-  </si>
-  <si>
-    <t>(2.19)</t>
-  </si>
-  <si>
-    <t>(1.33)</t>
-  </si>
-  <si>
-    <t>(1.75)</t>
-  </si>
-  <si>
-    <t>(1.57)</t>
-  </si>
-  <si>
-    <t>(2.82)</t>
-  </si>
-  <si>
-    <t>(2.47)</t>
+    <t>(1.22)</t>
+  </si>
+  <si>
+    <t>(1.96)</t>
+  </si>
+  <si>
+    <t>(1.53)</t>
+  </si>
+  <si>
+    <t>(2.32)</t>
+  </si>
+  <si>
+    <t>(1.83)</t>
   </si>
 </sst>
 </file>
@@ -592,22 +589,22 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -668,22 +665,22 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:12">
